--- a/hardware/BOM_邮票孔模块2023-07-11.xlsx
+++ b/hardware/BOM_邮票孔模块2023-07-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>在线BOM与焊接点位地址（手机也可查看）：https://easyeda.online/ibom/d5313712.html</t>
   </si>
@@ -98,7 +98,7 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C5,C7,C20,C23</t>
+    <t>C5,C7,C20,C23,C10</t>
   </si>
   <si>
     <t>4.7uF</t>
@@ -107,37 +107,34 @@
     <t>C6,C8,C24,C25,C26</t>
   </si>
   <si>
-    <t>C10</t>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C13,C22</t>
+  </si>
+  <si>
+    <t>4.7uF/0603</t>
+  </si>
+  <si>
+    <t>C15,C16</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>电阻</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
   <si>
     <t>R0402</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C13,C22</t>
-  </si>
-  <si>
-    <t>4.7uF/0603</t>
-  </si>
-  <si>
-    <t>C15,C16</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>电阻</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R2</t>
   </si>
   <si>
     <t>随便品牌都行，但是
@@ -410,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,18 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,85 +760,85 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -862,16 +847,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,19 +871,19 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,23 +892,17 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,57 +912,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -985,13 +943,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1361,8 +1313,8 @@
   <sheetPr/>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="B11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1413,806 +1365,798 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:13">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="10">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <v>5</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="10">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="10">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="10">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="10">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="10">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="10">
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="E13" s="10">
+      <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8">
         <v>2</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="10">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="14">
-        <v>12</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="14">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="14">
-        <v>2</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="14">
-        <v>14</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="14">
-        <v>15</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="14">
-        <v>16</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="14">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="14">
-        <v>2</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="14">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="14">
-        <v>19</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="F23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="G23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="10">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="17">
-        <v>20</v>
-      </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E25" s="10">
+        <v>3</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="18">
+      <c r="G25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="10">
         <v>3</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="18" t="s">
+      <c r="F26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="18">
-        <v>3</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="G26" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="H26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="21"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="21"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="21"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="21"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="21"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="21"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
